--- a/school_2/vor_spartac_2_walls.xlsx
+++ b/school_2/vor_spartac_2_walls.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>№ п.п.</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Штукатурка стен сухими смесями с установкой маяков с предварительной огрунтовкой / толщ. от 26,5 до 31 мм (Штукатурка по ж/б поверхностям)</t>
+  </si>
+  <si>
+    <t>2.4</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -286,45 +289,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -502,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -528,6 +492,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,152 +504,137 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -989,7 +941,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +955,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="2"/>
@@ -1011,185 +963,185 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="47" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="46">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="42">
         <v>1</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="43">
         <v>410.02</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="11">
         <v>0.25</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="12">
         <f>$E$3*D4</f>
         <v>102.505</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>1.05</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="12">
         <f t="shared" ref="E5:E6" si="0">$E$3*D5</f>
         <v>430.52100000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="13">
         <v>1</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <f t="shared" si="0"/>
         <v>410.02</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="42">
         <v>1</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="43">
         <v>603.16000000000008</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="12">
         <f>$E$7*D8</f>
         <v>603.16000000000008</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <v>0.15</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="12">
         <f t="shared" ref="E9:E10" si="1">$E$7*D9</f>
         <v>90.474000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="11">
         <v>1.05</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="12">
         <f t="shared" si="1"/>
         <v>633.3180000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="17">
         <v>295.41000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="37" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="2"/>
@@ -1214,73 +1166,73 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="46">
+      <c r="A15" s="39">
         <v>1</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="42">
         <v>1</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="43">
         <f>E7+E3</f>
         <v>1013.1800000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="13">
         <v>0.15</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="19">
         <f>$E$15*D16</f>
         <v>151.977</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="11">
         <v>1.8</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="19">
         <f>$E$15*D17</f>
         <v>1823.7240000000002</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="22">
         <v>0.3</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="17">
         <v>24.01</v>
       </c>
     </row>
@@ -1300,199 +1252,199 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="36"/>
-    <col min="2" max="2" width="13.7109375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="17" style="36" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="1" width="9.140625" style="29"/>
+    <col min="2" max="2" width="13.7109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="17" style="29" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="34" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="39"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>51.28</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>29.94</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="12">
         <f>C5+D5</f>
         <v>81.22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>51.69</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="26">
         <v>50.83</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="12">
         <f t="shared" ref="E6:E11" si="0">C6+D6</f>
         <v>102.52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="25">
         <v>3</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="26">
         <v>18.690000000000001</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="26">
         <v>69.78</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="12">
         <f t="shared" si="0"/>
         <v>88.47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="25">
         <v>4</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="26">
         <v>72.16</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="26">
         <v>133.6</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="12">
         <f t="shared" si="0"/>
         <v>205.76</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="A9" s="25">
         <v>5</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="26">
         <v>100.44</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="26">
         <v>190.18</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="12">
         <f t="shared" si="0"/>
         <v>290.62</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="25">
         <v>6</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="26">
         <v>43.98</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="26">
         <v>64.37</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
         <v>108.35</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
+      <c r="A11" s="24">
         <v>7</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="33">
         <v>71.78</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="33">
         <v>64.459999999999994</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="17">
         <f t="shared" si="0"/>
         <v>136.24</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="20">
         <f>SUM(C5:C11)</f>
         <v>410.02</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="20">
         <f>SUM(D5:D11)</f>
         <v>603.16000000000008</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="23">
         <f>SUM(E5:E11)</f>
         <v>1013.1800000000001</v>
       </c>
